--- a/ebiz-xjf-pom/setting/java讲义-5.xlsx
+++ b/ebiz-xjf-pom/setting/java讲义-5.xlsx
@@ -639,6 +639,272 @@
         <a:xfrm>
           <a:off x="0" y="41896393"/>
           <a:ext cx="7695238" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>169119</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>97703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44726679"/>
+          <a:ext cx="7761905" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>67048</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>45750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47135143"/>
+          <a:ext cx="7904762" cy="4114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>235785</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>99143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="51734357"/>
+          <a:ext cx="7828571" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>204524</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>76131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="53734607"/>
+          <a:ext cx="7552381" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>216738</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>122095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="54564643"/>
+          <a:ext cx="7809524" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>121500</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>108274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="57789536"/>
+          <a:ext cx="7714286" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>16738</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>120691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="63055500"/>
+          <a:ext cx="7609524" cy="3304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO231" sqref="AO231"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE376" sqref="AE376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
